--- a/login_twitter_api.xlsx
+++ b/login_twitter_api.xlsx
@@ -25,25 +25,25 @@
     <t>ckey</t>
   </si>
   <si>
-    <t>L0BK8hB5Y5NrpVQd3aYE3h21l</t>
+    <t>PA8zNqyLP6mdiQhlPmKPtoqme</t>
   </si>
   <si>
     <t xml:space="preserve">cskey </t>
   </si>
   <si>
-    <t>IQHeUUA1b7ANSW6Q09a4mS4kJdgrKxYK6YUTI5CPZ2momDc6My</t>
+    <t>bp5omBbjdBKAvfnxg9woI8u1jjwOAmQim1tyhaVEYPJqOxEK2G</t>
   </si>
   <si>
     <t>at</t>
   </si>
   <si>
-    <t>1345325820051652614-2RInaARrPNTmaD3oIhFcdVyM8xZhJA</t>
+    <t>1345325820051652614-KFOEO2OLeRVfE6GI9R4JSQcqtYumrv</t>
   </si>
   <si>
     <t xml:space="preserve">ats </t>
   </si>
   <si>
-    <t>DhGUKioZd1jc9TBMAl32j3gKPhojEYZNpwrk4t5BtclVo</t>
+    <t>GwuYV5dw61s17cQ6HHdAwivLGADtDE5KPTDmmiTSPg3sJ</t>
   </si>
 </sst>
 </file>
